--- a/analysis/calibration.xlsx
+++ b/analysis/calibration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0095F470-5C82-40C2-8262-504F4CD3B9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1836DD81-91A3-4DD9-B364-828D5C1B58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EE620007-8DE5-4166-9D3D-9DDAD9493365}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EE620007-8DE5-4166-9D3D-9DDAD9493365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="44">
   <si>
     <t>aaconsToLeisRatio</t>
   </si>
@@ -640,11 +640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC950ECC-B660-45F8-8387-1BED4EFA9C7C}">
-  <dimension ref="A1:AF227"/>
+  <dimension ref="A1:AF232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC213" sqref="AC213"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N221" sqref="N221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13530,191 +13530,345 @@
       <c r="S214" s="9"/>
       <c r="T214" s="9"/>
     </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>1.22</v>
+      </c>
+      <c r="B215">
+        <v>1.22</v>
+      </c>
+      <c r="C215">
+        <v>1.22</v>
+      </c>
+      <c r="D215">
+        <v>0.98</v>
+      </c>
+      <c r="E215">
+        <v>0.3</v>
+      </c>
+      <c r="F215">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G215">
+        <v>17</v>
+      </c>
+      <c r="H215" t="s">
+        <v>16</v>
+      </c>
+      <c r="I215">
+        <v>0.9</v>
+      </c>
+      <c r="J215">
+        <v>0.9</v>
+      </c>
+      <c r="K215">
+        <v>0.9</v>
+      </c>
+      <c r="L215">
+        <v>0.9</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q215">
+        <v>-1.9287450910298699E-2</v>
+      </c>
+      <c r="R215" s="9">
+        <v>-111.411232251792</v>
+      </c>
+      <c r="S215" s="9">
+        <v>-681.22884195176096</v>
+      </c>
+      <c r="T215" s="9">
+        <v>702.33669289678801</v>
+      </c>
+      <c r="U215" s="9">
+        <v>444.50712638468099</v>
+      </c>
+      <c r="V215" s="9">
+        <v>60.287618616458701</v>
+      </c>
+      <c r="W215" s="9">
+        <v>-173.24696107146701</v>
+      </c>
+      <c r="X215" s="9">
+        <v>54.267214242726098</v>
+      </c>
+      <c r="Y215" s="9">
+        <v>-6.0636102904162603E-2</v>
+      </c>
+      <c r="Z215">
+        <v>-2.9725622616437099E-3</v>
+      </c>
+      <c r="AA215" s="9">
+        <v>0.14926390056098501</v>
+      </c>
+      <c r="AB215" s="9">
+        <v>-0.12213730747552499</v>
+      </c>
+      <c r="AC215">
+        <v>0.80162253262409777</v>
+      </c>
+      <c r="AD215">
+        <v>1.1989620295375647E-2</v>
+      </c>
+    </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q216" s="3" t="s">
+      <c r="A216">
+        <v>1.22</v>
+      </c>
+      <c r="B216">
+        <v>1.22</v>
+      </c>
+      <c r="C216">
+        <v>1.22</v>
+      </c>
+      <c r="D216">
+        <v>0.98</v>
+      </c>
+      <c r="E216">
+        <v>0.3</v>
+      </c>
+      <c r="F216">
+        <v>2</v>
+      </c>
+      <c r="G216">
+        <v>17</v>
+      </c>
+      <c r="H216" t="s">
+        <v>16</v>
+      </c>
+      <c r="I216">
+        <v>0.9</v>
+      </c>
+      <c r="J216">
+        <v>0.9</v>
+      </c>
+      <c r="K216">
+        <v>0.9</v>
+      </c>
+      <c r="L216">
+        <v>0.9</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216" t="s">
+        <v>43</v>
+      </c>
+      <c r="R216" s="9"/>
+      <c r="S216" s="9"/>
+      <c r="T216" s="9"/>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R217" s="9"/>
+      <c r="S217" s="9"/>
+      <c r="T217" s="9"/>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R218" s="9"/>
+      <c r="S218" s="9"/>
+      <c r="T218" s="9"/>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="R219" s="9"/>
+      <c r="S219" s="9"/>
+      <c r="T219" s="9"/>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q221" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R216" s="11"/>
-      <c r="S216" s="11"/>
-      <c r="T216" s="11"/>
-      <c r="U216" s="11" t="s">
+      <c r="R221" s="11"/>
+      <c r="S221" s="11"/>
+      <c r="T221" s="11"/>
+      <c r="U221" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V216" s="11"/>
-      <c r="W216" s="11" t="s">
+      <c r="V221" s="11"/>
+      <c r="W221" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X216" s="11" t="s">
+      <c r="X221" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Y216" s="11" t="s">
+      <c r="Y221" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z216" s="3" t="s">
+      <c r="Z221" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA216" s="11" t="s">
+      <c r="AA221" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AB216" s="11" t="s">
+      <c r="AB221" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC216" s="3" t="s">
+      <c r="AC221" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q217" t="s">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q222" t="s">
         <v>20</v>
       </c>
-      <c r="U217" s="9" t="s">
+      <c r="U222" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W217" s="9" t="s">
+      <c r="W222" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X217" s="9" t="s">
+      <c r="X222" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Y217" s="9" t="s">
+      <c r="Y222" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Z217" t="s">
+      <c r="Z222" t="s">
         <v>22</v>
       </c>
-      <c r="AA217" s="9" t="s">
+      <c r="AA222" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AB217" s="9" t="s">
+      <c r="AB222" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC217" t="s">
+      <c r="AC222" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q218" t="s">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q223" t="s">
         <v>21</v>
       </c>
-      <c r="U218" s="9" t="s">
+      <c r="U223" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W218" s="9" t="s">
+      <c r="W223" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X218" s="9" t="s">
+      <c r="X223" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y218" s="9" t="s">
+      <c r="Y223" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z218" t="s">
+      <c r="Z223" t="s">
         <v>23</v>
       </c>
-      <c r="AA218" s="9" t="s">
+      <c r="AA223" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB218" s="9" t="s">
+      <c r="AB223" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AC218" t="s">
+      <c r="AC223" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q219" s="7" t="s">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Q224" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R219" s="15"/>
-      <c r="S219" s="15"/>
-      <c r="T219" s="15"/>
-      <c r="U219" s="15" t="s">
+      <c r="R224" s="15"/>
+      <c r="S224" s="15"/>
+      <c r="T224" s="15"/>
+      <c r="U224" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V219" s="15"/>
-      <c r="W219" s="15" t="s">
+      <c r="V224" s="15"/>
+      <c r="W224" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X219" s="15" t="s">
+      <c r="X224" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Y219" s="15" t="s">
+      <c r="Y224" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Z219" s="7" t="s">
+      <c r="Z224" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA219" s="15" t="s">
+      <c r="AA224" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AB219" s="15" t="s">
+      <c r="AB224" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AC219" s="7" t="s">
+      <c r="AC224" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q220" t="s">
+    <row r="225" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q225" t="s">
         <v>41</v>
       </c>
-      <c r="X220" s="9" t="s">
+      <c r="X225" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z220" t="s">
+      <c r="Z225" t="s">
         <v>34</v>
       </c>
-      <c r="AB220" s="9" t="s">
+      <c r="AB225" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC220" t="s">
+      <c r="AC225" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q221" s="7" t="s">
+    <row r="226" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q226" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R221" s="15"/>
-      <c r="S221" s="15"/>
-      <c r="T221" s="15"/>
-      <c r="U221" s="15" t="s">
+      <c r="R226" s="15"/>
+      <c r="S226" s="15"/>
+      <c r="T226" s="15"/>
+      <c r="U226" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V221" s="15"/>
-      <c r="W221" s="15" t="s">
+      <c r="V226" s="15"/>
+      <c r="W226" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X221" s="15" t="s">
+      <c r="X226" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Y221" s="15" t="s">
+      <c r="Y226" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Z221" s="7"/>
-      <c r="AA221" s="15" t="s">
+      <c r="Z226" s="7"/>
+      <c r="AA226" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AB221" s="15" t="s">
+      <c r="AB226" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC221" s="7"/>
-    </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q223" s="2"/>
-      <c r="U223" s="10"/>
-      <c r="V223" s="10"/>
-      <c r="W223" s="10"/>
-      <c r="X223" s="10"/>
-      <c r="Y223" s="10"/>
-      <c r="Z223" s="2"/>
-      <c r="AA223" s="10"/>
-      <c r="AB223" s="10"/>
-    </row>
-    <row r="227" spans="18:20" x14ac:dyDescent="0.25">
-      <c r="R227" s="9"/>
-      <c r="S227" s="9"/>
-      <c r="T227" s="9"/>
+      <c r="AC226" s="7"/>
+    </row>
+    <row r="228" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q228" s="2"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
+      <c r="X228" s="10"/>
+      <c r="Y228" s="10"/>
+      <c r="Z228" s="2"/>
+      <c r="AA228" s="10"/>
+      <c r="AB228" s="10"/>
+    </row>
+    <row r="232" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="R232" s="9"/>
+      <c r="S232" s="9"/>
+      <c r="T232" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/calibration.xlsx
+++ b/analysis/calibration.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyFiles\99 DEV ENV\JAS-MINE\SimPaths\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1836DD81-91A3-4DD9-B364-828D5C1B58A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDFEA33-DF88-45DD-A34F-B233C493EF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{EE620007-8DE5-4166-9D3D-9DDAD9493365}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EE620007-8DE5-4166-9D3D-9DDAD9493365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -90,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="44">
   <si>
     <t>aaconsToLeisRatio</t>
   </si>
@@ -228,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +287,128 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +427,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,9 +609,157 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -327,8 +779,49 @@
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -344,9 +837,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -384,7 +877,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -490,7 +983,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -632,7 +1125,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -640,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC950ECC-B660-45F8-8387-1BED4EFA9C7C}">
-  <dimension ref="A1:AF232"/>
+  <dimension ref="A1:AF238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N221" sqref="N221"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K225" sqref="K225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13517,7 +14010,7 @@
         <v>-0.122682779652812</v>
       </c>
       <c r="AC213">
-        <f t="shared" ref="AC213" si="5">($V$2+V213)/($X$2+X213)</f>
+        <f t="shared" ref="AC213:AC218" si="5">($V$2+V213)/($X$2+X213)</f>
         <v>0.79940883972630017</v>
       </c>
       <c r="AD213">
@@ -13613,9 +14106,11 @@
         <v>-0.12213730747552499</v>
       </c>
       <c r="AC215">
+        <f t="shared" si="5"/>
         <v>0.80162253262409777</v>
       </c>
       <c r="AD215">
+        <f t="shared" ref="AD215:AD220" si="6">AC215-$AC$165</f>
         <v>1.1989620295375647E-2</v>
       </c>
     </row>
@@ -13665,210 +14160,797 @@
       <c r="O216" t="s">
         <v>43</v>
       </c>
-      <c r="R216" s="9"/>
-      <c r="S216" s="9"/>
-      <c r="T216" s="9"/>
+      <c r="Q216">
+        <v>-2.2228111956560999E-2</v>
+      </c>
+      <c r="R216" s="9">
+        <v>-126.512853900316</v>
+      </c>
+      <c r="S216" s="9">
+        <v>-674.61915978879495</v>
+      </c>
+      <c r="T216" s="9">
+        <v>712.51347275748799</v>
+      </c>
+      <c r="U216" s="9">
+        <v>462.11933644815201</v>
+      </c>
+      <c r="V216" s="9">
+        <v>51.358024305416102</v>
+      </c>
+      <c r="W216" s="9">
+        <v>-194.12750005326001</v>
+      </c>
+      <c r="X216" s="9">
+        <v>24.131870650981401</v>
+      </c>
+      <c r="Y216" s="9">
+        <v>-5.2349558857696002E-2</v>
+      </c>
+      <c r="Z216">
+        <v>-4.35120819879075E-3</v>
+      </c>
+      <c r="AA216" s="9">
+        <v>0.14658246246339399</v>
+      </c>
+      <c r="AB216" s="9">
+        <v>-0.128153614834947</v>
+      </c>
+      <c r="AC216">
+        <f t="shared" si="5"/>
+        <v>0.81231485930633607</v>
+      </c>
+      <c r="AD216">
+        <f t="shared" si="6"/>
+        <v>2.2681946977613943E-2</v>
+      </c>
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R217" s="9"/>
-      <c r="S217" s="9"/>
-      <c r="T217" s="9"/>
+      <c r="A217">
+        <v>1.22</v>
+      </c>
+      <c r="B217">
+        <v>1.22</v>
+      </c>
+      <c r="C217">
+        <v>1.22</v>
+      </c>
+      <c r="D217">
+        <v>0.98</v>
+      </c>
+      <c r="E217">
+        <v>0.3</v>
+      </c>
+      <c r="F217">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G217">
+        <v>17</v>
+      </c>
+      <c r="H217" t="s">
+        <v>16</v>
+      </c>
+      <c r="I217">
+        <v>0.9</v>
+      </c>
+      <c r="J217">
+        <v>0.9</v>
+      </c>
+      <c r="K217">
+        <v>0.9</v>
+      </c>
+      <c r="L217">
+        <v>0.9</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q217">
+        <v>-2.4595828984163001E-2</v>
+      </c>
+      <c r="R217" s="9">
+        <v>-124.07249000671</v>
+      </c>
+      <c r="S217" s="9">
+        <v>-682.03330126715503</v>
+      </c>
+      <c r="T217" s="9">
+        <v>696.32214446489797</v>
+      </c>
+      <c r="U217" s="9">
+        <v>457.53492381355801</v>
+      </c>
+      <c r="V217" s="9">
+        <v>57.882806377403703</v>
+      </c>
+      <c r="W217" s="9">
+        <v>-182.64873267532701</v>
+      </c>
+      <c r="X217" s="9">
+        <v>54.2581401274565</v>
+      </c>
+      <c r="Y217" s="9">
+        <v>-6.1449268441432697E-2</v>
+      </c>
+      <c r="Z217">
+        <v>-1.6437469005381399E-3</v>
+      </c>
+      <c r="AA217" s="9">
+        <v>0.14847005375577699</v>
+      </c>
+      <c r="AB217" s="9">
+        <v>-0.116173774742063</v>
+      </c>
+      <c r="AC217">
+        <f t="shared" si="5"/>
+        <v>0.79997393050155152</v>
+      </c>
+      <c r="AD217">
+        <f t="shared" si="6"/>
+        <v>1.0341018172829397E-2</v>
+      </c>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="R218" s="9"/>
-      <c r="S218" s="9"/>
-      <c r="T218" s="9"/>
+      <c r="A218">
+        <v>1.24</v>
+      </c>
+      <c r="B218">
+        <v>1.24</v>
+      </c>
+      <c r="C218">
+        <v>1.24</v>
+      </c>
+      <c r="D218">
+        <v>0.98</v>
+      </c>
+      <c r="E218">
+        <v>0.3</v>
+      </c>
+      <c r="F218">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G218">
+        <v>17</v>
+      </c>
+      <c r="H218" t="s">
+        <v>16</v>
+      </c>
+      <c r="I218">
+        <v>0.9</v>
+      </c>
+      <c r="J218">
+        <v>0.9</v>
+      </c>
+      <c r="K218">
+        <v>0.9</v>
+      </c>
+      <c r="L218">
+        <v>0.9</v>
+      </c>
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q218">
+        <v>-2.4183201310173898E-2</v>
+      </c>
+      <c r="R218" s="9">
+        <v>-128.77086028743199</v>
+      </c>
+      <c r="S218" s="9">
+        <v>-686.37834252300195</v>
+      </c>
+      <c r="T218" s="9">
+        <v>690.09377586556298</v>
+      </c>
+      <c r="U218" s="9">
+        <v>448.294368887948</v>
+      </c>
+      <c r="V218" s="9">
+        <v>49.091940804112397</v>
+      </c>
+      <c r="W218" s="9">
+        <v>-191.23733868335799</v>
+      </c>
+      <c r="X218" s="9">
+        <v>46.055934061105198</v>
+      </c>
+      <c r="Y218" s="9">
+        <v>-5.3704834753146101E-2</v>
+      </c>
+      <c r="Z218">
+        <v>3.3725310876353502E-3</v>
+      </c>
+      <c r="AA218" s="9">
+        <v>0.15113385081325101</v>
+      </c>
+      <c r="AB218" s="9">
+        <v>-0.109497784558144</v>
+      </c>
+      <c r="AC218">
+        <f t="shared" si="5"/>
+        <v>0.79843230803812804</v>
+      </c>
+      <c r="AD218">
+        <f t="shared" si="6"/>
+        <v>8.7993957094059105E-3</v>
+      </c>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="R219" s="9"/>
       <c r="S219" s="9"/>
       <c r="T219" s="9"/>
     </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>1.24</v>
+      </c>
+      <c r="B220">
+        <v>1.24</v>
+      </c>
+      <c r="C220">
+        <v>1.24</v>
+      </c>
+      <c r="D220">
+        <v>0.98</v>
+      </c>
+      <c r="E220">
+        <v>0.3</v>
+      </c>
+      <c r="F220">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G220">
+        <v>17</v>
+      </c>
+      <c r="H220" t="s">
+        <v>16</v>
+      </c>
+      <c r="I220">
+        <v>0.9</v>
+      </c>
+      <c r="J220">
+        <v>0.9</v>
+      </c>
+      <c r="K220">
+        <v>0.9</v>
+      </c>
+      <c r="L220">
+        <v>0.9</v>
+      </c>
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q220">
+        <v>-2.4183201254020799E-2</v>
+      </c>
+      <c r="R220" s="9">
+        <v>-128.77086028743199</v>
+      </c>
+      <c r="S220" s="9">
+        <v>-686.37834252300195</v>
+      </c>
+      <c r="T220" s="9">
+        <v>690.09377586556298</v>
+      </c>
+      <c r="U220" s="9">
+        <v>448.29391811844198</v>
+      </c>
+      <c r="V220" s="9">
+        <v>49.091801306806701</v>
+      </c>
+      <c r="W220" s="9">
+        <v>-191.23733833226399</v>
+      </c>
+      <c r="X220" s="9">
+        <v>46.055934044419899</v>
+      </c>
+      <c r="Y220" s="9">
+        <v>-5.3704834753146101E-2</v>
+      </c>
+      <c r="Z220">
+        <v>3.3725310876353502E-3</v>
+      </c>
+      <c r="AA220" s="9">
+        <v>0.15113385081325101</v>
+      </c>
+      <c r="AB220" s="9">
+        <v>-0.109497784558144</v>
+      </c>
+      <c r="AC220">
+        <f t="shared" ref="AC220" si="7">($V$2+V220)/($X$2+X220)</f>
+        <v>0.79843221158173394</v>
+      </c>
+      <c r="AD220">
+        <f t="shared" si="6"/>
+        <v>8.7992992530118164E-3</v>
+      </c>
+    </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q221" s="3" t="s">
+      <c r="A221">
+        <v>1.24</v>
+      </c>
+      <c r="B221">
+        <v>1.24</v>
+      </c>
+      <c r="C221">
+        <v>1.24</v>
+      </c>
+      <c r="D221">
+        <v>0.98</v>
+      </c>
+      <c r="E221">
+        <v>0.3</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+      <c r="G221">
+        <v>17</v>
+      </c>
+      <c r="H221" t="s">
+        <v>16</v>
+      </c>
+      <c r="I221">
+        <v>0.9</v>
+      </c>
+      <c r="J221">
+        <v>0.9</v>
+      </c>
+      <c r="K221">
+        <v>0.9</v>
+      </c>
+      <c r="L221">
+        <v>0.9</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q221">
+        <v>-2.1767295479201199E-2</v>
+      </c>
+      <c r="R221" s="9">
+        <v>-130.51871342712599</v>
+      </c>
+      <c r="S221" s="9">
+        <v>-679.03717405634097</v>
+      </c>
+      <c r="T221" s="9">
+        <v>706.91288285196197</v>
+      </c>
+      <c r="U221" s="9">
+        <v>453.954838788534</v>
+      </c>
+      <c r="V221" s="9">
+        <v>43.004012807957601</v>
+      </c>
+      <c r="W221" s="9">
+        <v>-202.56438606733801</v>
+      </c>
+      <c r="X221" s="9">
+        <v>14.784752311096099</v>
+      </c>
+      <c r="Y221" s="9">
+        <v>-4.7935231655372702E-2</v>
+      </c>
+      <c r="Z221">
+        <v>-1.73744907315143E-4</v>
+      </c>
+      <c r="AA221" s="9">
+        <v>0.14979313176445599</v>
+      </c>
+      <c r="AB221" s="9">
+        <v>-0.12269144104810401</v>
+      </c>
+      <c r="AC221">
+        <f t="shared" ref="AC221" si="8">($V$2+V221)/($X$2+X221)</f>
+        <v>0.8117768314285827</v>
+      </c>
+      <c r="AD221">
+        <f t="shared" ref="AD221" si="9">AC221-$AC$165</f>
+        <v>2.2143919099860576E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>1.26</v>
+      </c>
+      <c r="B222">
+        <v>1.26</v>
+      </c>
+      <c r="C222">
+        <v>1.26</v>
+      </c>
+      <c r="D222">
+        <v>0.98</v>
+      </c>
+      <c r="E222">
+        <v>0.3</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+      <c r="G222">
+        <v>17</v>
+      </c>
+      <c r="H222" t="s">
+        <v>16</v>
+      </c>
+      <c r="I222">
+        <v>0.9</v>
+      </c>
+      <c r="J222">
+        <v>0.9</v>
+      </c>
+      <c r="K222">
+        <v>0.9</v>
+      </c>
+      <c r="L222">
+        <v>0.9</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q222">
+        <v>-2.1939127055402099E-2</v>
+      </c>
+      <c r="R222" s="9">
+        <v>-137.29141371174299</v>
+      </c>
+      <c r="S222" s="9">
+        <v>-683.39989094112502</v>
+      </c>
+      <c r="T222" s="9">
+        <v>700.74890183228194</v>
+      </c>
+      <c r="U222" s="9">
+        <v>443.222235014126</v>
+      </c>
+      <c r="V222" s="9">
+        <v>33.8294132820713</v>
+      </c>
+      <c r="W222" s="9">
+        <v>-211.04755133210401</v>
+      </c>
+      <c r="X222" s="9">
+        <v>5.51175986218208</v>
+      </c>
+      <c r="Y222" s="9">
+        <v>-4.3443460116166503E-2</v>
+      </c>
+      <c r="Z222">
+        <v>3.1233782074280799E-3</v>
+      </c>
+      <c r="AA222" s="9">
+        <v>0.15150431265568201</v>
+      </c>
+      <c r="AB222" s="9">
+        <v>-0.11783617545979801</v>
+      </c>
+      <c r="AC222">
+        <f t="shared" ref="AC222" si="10">($V$2+V222)/($X$2+X222)</f>
+        <v>0.81060503974319764</v>
+      </c>
+      <c r="AD222">
+        <f t="shared" ref="AD222" si="11">AC222-$AC$165</f>
+        <v>2.0972127414475517E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>1.26</v>
+      </c>
+      <c r="B223">
+        <v>1.26</v>
+      </c>
+      <c r="C223">
+        <v>1.26</v>
+      </c>
+      <c r="D223">
+        <v>0.98</v>
+      </c>
+      <c r="E223">
+        <v>0.34</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <v>17</v>
+      </c>
+      <c r="H223" t="s">
+        <v>16</v>
+      </c>
+      <c r="I223">
+        <v>0.9</v>
+      </c>
+      <c r="J223">
+        <v>0.9</v>
+      </c>
+      <c r="K223">
+        <v>0.9</v>
+      </c>
+      <c r="L223">
+        <v>0.9</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q223">
+        <v>-7.2870856006985703E-3</v>
+      </c>
+      <c r="R223" s="8">
+        <v>-122.305827922193</v>
+      </c>
+      <c r="S223" s="8">
+        <v>-671.08839959120201</v>
+      </c>
+      <c r="T223" s="8">
+        <v>706.85827366055901</v>
+      </c>
+      <c r="U223" s="9">
+        <v>483.348237121539</v>
+      </c>
+      <c r="V223" s="9">
+        <v>86.297224122578598</v>
+      </c>
+      <c r="W223" s="9">
+        <v>-153.064915291245</v>
+      </c>
+      <c r="X223" s="9">
+        <v>95.041646633918305</v>
+      </c>
+      <c r="Y223" s="9">
+        <v>-5.4401833785091898E-2</v>
+      </c>
+      <c r="Z223">
+        <v>-6.33612614444223E-3</v>
+      </c>
+      <c r="AA223" s="9">
+        <v>0.14134307354902401</v>
+      </c>
+      <c r="AB223" s="9">
+        <v>-0.12522462309417601</v>
+      </c>
+      <c r="AC223">
+        <f t="shared" ref="AC223" si="12">($V$2+V223)/($X$2+X223)</f>
+        <v>0.79715712129028338</v>
+      </c>
+      <c r="AD223">
+        <f t="shared" ref="AD223" si="13">AC223-$AC$165</f>
+        <v>7.5242089615612517E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q225">
+        <f>1.3614+Q223</f>
+        <v>1.3541129143993014</v>
+      </c>
+      <c r="Z225">
+        <f>0.3808+Z223</f>
+        <v>0.37446387385555779</v>
+      </c>
+    </row>
+    <row r="227" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q227" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R221" s="11"/>
-      <c r="S221" s="11"/>
-      <c r="T221" s="11"/>
-      <c r="U221" s="11" t="s">
+      <c r="R227" s="11"/>
+      <c r="S227" s="11"/>
+      <c r="T227" s="11"/>
+      <c r="U227" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="V221" s="11"/>
-      <c r="W221" s="11" t="s">
+      <c r="V227" s="11"/>
+      <c r="W227" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="X221" s="11" t="s">
+      <c r="X227" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Y221" s="11" t="s">
+      <c r="Y227" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z221" s="3" t="s">
+      <c r="Z227" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA221" s="11" t="s">
+      <c r="AA227" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AB221" s="11" t="s">
+      <c r="AB227" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AC221" s="3" t="s">
+      <c r="AC227" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q222" t="s">
+    <row r="228" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q228" t="s">
         <v>20</v>
       </c>
-      <c r="U222" s="9" t="s">
+      <c r="U228" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="W222" s="9" t="s">
+      <c r="W228" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="X222" s="9" t="s">
+      <c r="X228" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Y222" s="9" t="s">
+      <c r="Y228" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Z222" t="s">
+      <c r="Z228" t="s">
         <v>22</v>
       </c>
-      <c r="AA222" s="9" t="s">
+      <c r="AA228" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AB222" s="9" t="s">
+      <c r="AB228" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC222" t="s">
+      <c r="AC228" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q223" t="s">
+    <row r="229" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q229" t="s">
         <v>21</v>
       </c>
-      <c r="U223" s="9" t="s">
+      <c r="U229" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W223" s="9" t="s">
+      <c r="W229" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="X223" s="9" t="s">
+      <c r="X229" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="Y223" s="9" t="s">
+      <c r="Y229" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Z223" t="s">
+      <c r="Z229" t="s">
         <v>23</v>
       </c>
-      <c r="AA223" s="9" t="s">
+      <c r="AA229" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AB223" s="9" t="s">
+      <c r="AB229" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AC223" t="s">
+      <c r="AC229" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="Q224" s="7" t="s">
+    <row r="230" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q230" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R224" s="15"/>
-      <c r="S224" s="15"/>
-      <c r="T224" s="15"/>
-      <c r="U224" s="15" t="s">
+      <c r="R230" s="15"/>
+      <c r="S230" s="15"/>
+      <c r="T230" s="15"/>
+      <c r="U230" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="V224" s="15"/>
-      <c r="W224" s="15" t="s">
+      <c r="V230" s="15"/>
+      <c r="W230" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="X224" s="15" t="s">
+      <c r="X230" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Y224" s="15" t="s">
+      <c r="Y230" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Z224" s="7" t="s">
+      <c r="Z230" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AA224" s="15" t="s">
+      <c r="AA230" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AB224" s="15" t="s">
+      <c r="AB230" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AC224" s="7" t="s">
+      <c r="AC230" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="Q225" t="s">
+    <row r="231" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q231" t="s">
         <v>41</v>
       </c>
-      <c r="X225" s="9" t="s">
+      <c r="X231" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z225" t="s">
+      <c r="Z231" t="s">
         <v>34</v>
       </c>
-      <c r="AB225" s="9" t="s">
+      <c r="AB231" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AC225" t="s">
+      <c r="AC231" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="Q226" s="7" t="s">
+    <row r="232" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q232" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="R226" s="15"/>
-      <c r="S226" s="15"/>
-      <c r="T226" s="15"/>
-      <c r="U226" s="15" t="s">
+      <c r="R232" s="15"/>
+      <c r="S232" s="15"/>
+      <c r="T232" s="15"/>
+      <c r="U232" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="V226" s="15"/>
-      <c r="W226" s="15" t="s">
+      <c r="V232" s="15"/>
+      <c r="W232" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X226" s="15" t="s">
+      <c r="X232" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Y226" s="15" t="s">
+      <c r="Y232" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="Z226" s="7"/>
-      <c r="AA226" s="15" t="s">
+      <c r="Z232" s="7"/>
+      <c r="AA232" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AB226" s="15" t="s">
+      <c r="AB232" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AC226" s="7"/>
-    </row>
-    <row r="228" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="Q228" s="2"/>
-      <c r="U228" s="10"/>
-      <c r="V228" s="10"/>
-      <c r="W228" s="10"/>
-      <c r="X228" s="10"/>
-      <c r="Y228" s="10"/>
-      <c r="Z228" s="2"/>
-      <c r="AA228" s="10"/>
-      <c r="AB228" s="10"/>
-    </row>
-    <row r="232" spans="17:29" x14ac:dyDescent="0.25">
-      <c r="R232" s="9"/>
-      <c r="S232" s="9"/>
-      <c r="T232" s="9"/>
+      <c r="AC232" s="7"/>
+    </row>
+    <row r="234" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="Q234" s="2"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+      <c r="W234" s="10"/>
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+      <c r="Z234" s="2"/>
+      <c r="AA234" s="10"/>
+      <c r="AB234" s="10"/>
+    </row>
+    <row r="238" spans="17:29" x14ac:dyDescent="0.25">
+      <c r="R238" s="9"/>
+      <c r="S238" s="9"/>
+      <c r="T238" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
